--- a/data/trans_dic/P39A4_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P39A4_2023-Provincia-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.943523282757781</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.9361285646356269</v>
+        <v>0.936128564635627</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8887472087850948</v>
+        <v>0.8901194414142959</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9133504009025013</v>
+        <v>0.9095729125586531</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.912425119091169</v>
+        <v>0.9114638012327417</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9556415628346118</v>
+        <v>0.9562796717038232</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.963182326840116</v>
+        <v>0.962887431913274</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9520582232422992</v>
+        <v>0.9528115747165998</v>
       </c>
     </row>
     <row r="7">
@@ -622,10 +622,10 @@
         <v>0.9803333070645089</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.9747768857964146</v>
+        <v>0.9747768857964147</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.9775351252005262</v>
+        <v>0.9775351252005263</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9545792674873594</v>
+        <v>0.9539249826185208</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9598524381179879</v>
+        <v>0.9611800631425347</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9641592545144504</v>
+        <v>0.9639386591828878</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9920163792727646</v>
+        <v>0.991737342331088</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.984367839702483</v>
+        <v>0.9846929775065563</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9854500935743896</v>
+        <v>0.9850843259563112</v>
       </c>
     </row>
     <row r="10">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.9149709873461366</v>
+        <v>0.9149709873461368</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.8691492987478805</v>
+        <v>0.8691492987478804</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.8909673979135385</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.879253950442123</v>
+        <v>0.8814352859938974</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8355320098831656</v>
+        <v>0.837819209159854</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8667318068483715</v>
+        <v>0.8678582569437719</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9392794834317078</v>
+        <v>0.9404222839251353</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8977878449338538</v>
+        <v>0.8997188599614573</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9116813406342551</v>
+        <v>0.9109127089472947</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9232189874531537</v>
+        <v>0.9178284848954178</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9378717316936194</v>
+        <v>0.9325273616969597</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9408886095196993</v>
+        <v>0.9437958060650499</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.98845527796351</v>
+        <v>0.9883611745324091</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9787971589727837</v>
+        <v>0.9787741222742181</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.977943872591886</v>
+        <v>0.9789675884401956</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.9839578130650358</v>
+        <v>0.983957813065036</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.9914979912438354</v>
@@ -802,10 +802,10 @@
       </c>
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="n">
-        <v>0.9488206675106172</v>
+        <v>0.9531815640339183</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9774943195901415</v>
+        <v>0.9711441492061729</v>
       </c>
     </row>
     <row r="18">
@@ -817,10 +817,10 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.994275902707582</v>
+        <v>0.9942846371465672</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9970760859209152</v>
+        <v>0.9970642243036415</v>
       </c>
     </row>
     <row r="19">
@@ -838,7 +838,7 @@
         <v>0.953619560638085</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.9628003008370259</v>
+        <v>0.9628003008370258</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.9581216364527847</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.9165475900487516</v>
+        <v>0.9204597714946302</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.9319721360322991</v>
+        <v>0.9356593774348113</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9374673990208462</v>
+        <v>0.9347437653197407</v>
       </c>
     </row>
     <row r="21">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.973534633799366</v>
+        <v>0.9745507450005689</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9800300409176083</v>
+        <v>0.9818055436113827</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9718205094056624</v>
+        <v>0.9721380786082969</v>
       </c>
     </row>
     <row r="22">
@@ -890,10 +890,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.7764727679449455</v>
+        <v>0.7764727679449457</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.8030594625421646</v>
+        <v>0.8030594625421648</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.7900849582231734</v>
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7400790496384485</v>
+        <v>0.7378335261428902</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7742847496262519</v>
+        <v>0.7755344810319159</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7660093647739225</v>
+        <v>0.7660330230385968</v>
       </c>
     </row>
     <row r="24">
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.816323434669191</v>
+        <v>0.8131791854848264</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8315074255245808</v>
+        <v>0.8310854731882444</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8139948655665995</v>
+        <v>0.8120627857136065</v>
       </c>
     </row>
     <row r="25">
@@ -945,13 +945,13 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.9574857405731989</v>
+        <v>0.9574857405731987</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.9688616356408737</v>
+        <v>0.9688616356408735</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.9634127959861376</v>
+        <v>0.9634127959861377</v>
       </c>
     </row>
     <row r="26">
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.9344250290479997</v>
+        <v>0.9358032548974129</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.9564833602293543</v>
+        <v>0.9569376344880276</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.9519692698610046</v>
+        <v>0.9509264750931342</v>
       </c>
     </row>
     <row r="27">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.9727460402393621</v>
+        <v>0.9717913923901267</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9791602179506861</v>
+        <v>0.9788360635810662</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.97261742230144</v>
+        <v>0.972702466601211</v>
       </c>
     </row>
     <row r="28">
@@ -1000,13 +1000,13 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.9189873530307753</v>
+        <v>0.9189873530307754</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.9229529434970936</v>
+        <v>0.9229529434970933</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.9210297987592954</v>
+        <v>0.9210297987592952</v>
       </c>
     </row>
     <row r="29">
@@ -1017,13 +1017,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.9079052981496902</v>
+        <v>0.907090016019271</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.9140236758557877</v>
+        <v>0.9132274443711186</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.913140151828074</v>
+        <v>0.9141083189874336</v>
       </c>
     </row>
     <row r="30">
@@ -1034,13 +1034,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.9288234597506259</v>
+        <v>0.9294301359008047</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.9306294068872664</v>
+        <v>0.9303388472451977</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.9271002804341353</v>
+        <v>0.9275436077683572</v>
       </c>
     </row>
     <row r="31">
@@ -1186,13 +1186,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>282687</v>
+        <v>283124</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>285167</v>
+        <v>283988</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>575097</v>
+        <v>574491</v>
       </c>
     </row>
     <row r="7">
@@ -1203,13 +1203,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>303965</v>
+        <v>304168</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>300726</v>
+        <v>300634</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>600078</v>
+        <v>600552</v>
       </c>
     </row>
     <row r="8">
@@ -1258,13 +1258,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>498265</v>
+        <v>497923</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>508273</v>
+        <v>508976</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1013817</v>
+        <v>1013585</v>
       </c>
     </row>
     <row r="11">
@@ -1275,13 +1275,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>517806</v>
+        <v>517660</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>521254</v>
+        <v>521426</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1036205</v>
+        <v>1035820</v>
       </c>
     </row>
     <row r="12">
@@ -1330,13 +1330,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>260471</v>
+        <v>261117</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>272312</v>
+        <v>273058</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>539242</v>
+        <v>539943</v>
       </c>
     </row>
     <row r="15">
@@ -1347,13 +1347,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>278253</v>
+        <v>278592</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>292603</v>
+        <v>293232</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>567208</v>
+        <v>566730</v>
       </c>
     </row>
     <row r="16">
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>266427</v>
+        <v>264872</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>326606</v>
+        <v>324745</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>599183</v>
+        <v>601035</v>
       </c>
     </row>
     <row r="19">
@@ -1419,13 +1419,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>285253</v>
+        <v>285226</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>340858</v>
+        <v>340850</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>622781</v>
+        <v>623433</v>
       </c>
     </row>
     <row r="20">
@@ -1475,10 +1475,10 @@
       </c>
       <c r="C22" s="6" t="inlineStr"/>
       <c r="D22" s="6" t="n">
-        <v>211230</v>
+        <v>212201</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>410608</v>
+        <v>407941</v>
       </c>
     </row>
     <row r="23">
@@ -1490,10 +1490,10 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>221350</v>
+        <v>221352</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>418834</v>
+        <v>418829</v>
       </c>
     </row>
     <row r="24">
@@ -1542,13 +1542,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>224375</v>
+        <v>225333</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>219540</v>
+        <v>220409</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>450332</v>
+        <v>449024</v>
       </c>
     </row>
     <row r="27">
@@ -1559,13 +1559,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>238326</v>
+        <v>238575</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>230861</v>
+        <v>231279</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>466834</v>
+        <v>466987</v>
       </c>
     </row>
     <row r="28">
@@ -1614,13 +1614,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>514675</v>
+        <v>513114</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>564928</v>
+        <v>565840</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1091599</v>
+        <v>1091632</v>
       </c>
     </row>
     <row r="31">
@@ -1631,13 +1631,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>567698</v>
+        <v>565512</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>606679</v>
+        <v>606371</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1159980</v>
+        <v>1157227</v>
       </c>
     </row>
     <row r="32">
@@ -1686,13 +1686,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>646573</v>
+        <v>647526</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>719921</v>
+        <v>720263</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1375236</v>
+        <v>1373729</v>
       </c>
     </row>
     <row r="35">
@@ -1703,13 +1703,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>673089</v>
+        <v>672428</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>736989</v>
+        <v>736745</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1405065</v>
+        <v>1405187</v>
       </c>
     </row>
     <row r="36">
@@ -1758,13 +1758,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>2954774</v>
+        <v>2952121</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>3159220</v>
+        <v>3156467</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>6127977</v>
+        <v>6134474</v>
       </c>
     </row>
     <row r="39">
@@ -1775,13 +1775,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>3022852</v>
+        <v>3024827</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>3216615</v>
+        <v>3215611</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>6221662</v>
+        <v>6224637</v>
       </c>
     </row>
     <row r="40">
